--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBAFE9-AE30-4538-B9CC-85BEA725C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984EC33-946F-4103-9CF8-CA43353D8862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="495">
   <si>
     <t>group</t>
   </si>
@@ -968,6 +968,816 @@
   </si>
   <si>
     <t>风滚草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两只鱼吃蛋挞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般路过的咸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼鱼F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空扛大总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张有点慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有儿孙我享福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世渡劫一半嗝屁者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jerryxu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋头丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨繁星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥撒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云中鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TunaFish2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持枪孤守长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风有绪忆江南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.Nobody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱发电用户_yqdg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看似简单，创意不易。支持原创，走向远方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我年轻的时候，也曾快马加鞭，看尽长安花。一一jx3金主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李笑梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张有点慌吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这不比抽奖好玩？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截杀元婴大佬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加的珠珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上善若水煮汤圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口袋王野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又怎样我同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉末DVD↑↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱加班的中矢建工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukomico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newnigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asillynoob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一世长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪蜀黍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzkrz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多某人lxd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫猫猫毛多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥苍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小崽崽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊氏本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetorain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xingkonghod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzk990929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京林业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沸腾的幻景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是原P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮饭233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haooo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵佳瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿婆朱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油腻的Wink😉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带你嫖娼的馆长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obento</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银子舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大户爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜汁帅气小彩蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌云铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忆丶醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙空间法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛瑙星mnx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有酸萝卜别吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m子会梦见花之暴君吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘云金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天湮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持国产游戏，吾辈义不容辞！————读完本科自称硕士的沙雕的高质量网友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹老板的老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小书童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道我们没有缘分，这也不是我想要的结果，事与愿违，曾经我们都想好好的，即使现在我也是想要跟你好好的，虽然你看不见，但还是想留下这么一句话（可能会有人看到会觉得挺可笑的 确实挺幼稚的）十年的恋情，不希望给你带来生活的压力， 希望你快快乐乐的 这也是我一直给你说的 也是一直希望的—GQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00BFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉心糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幡因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷灯蔷薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众老爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZZZZF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星三西米露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所行皆为何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3AdCa7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温情大白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amomia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾Ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿迟迟迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱布Sa_Official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白猪M82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isarr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候君士坦丁十一世如闪电般归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望大家多多养猫，领养代替购买。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【前排征婚】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我和你一起爱左蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男魔仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏可以无限重开，可惜人生不能——活着吧，活着总比死了强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#99ff99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢肥哥救我狗命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可以的话希望人生重开后还能遇到你们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清影昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散修少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ainavol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不识周树人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坠星灬追月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juvucuc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深秋的七宗罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋漓雨声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废柴呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天林灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱白安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺其自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkanin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳演员路人甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼岸星霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈0421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小糊涂仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬子，不论重生多长次，我都等你回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离淘气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If what you need didn't exist. just create it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩鸿鹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为策划的脑洞和程序的脑细胞+发际线，干杯！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划让我写一句话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧二花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾熙豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮酒醉月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉墨明华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人未尽”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡纸129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMFAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨露微凉暮流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若酷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑绝轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然🥰我的嘉然🥰🥰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔西尔兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbhehe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我永远喜欢阎魔爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achi-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小僵尸是吃了跳跳糖么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxyfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王柯南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIRVANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大刘亦菲Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天边最远的云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,6 +1839,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2237,7 +3050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -2245,7 +3058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -2253,7 +3066,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -2261,7 +3074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -2269,7 +3082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -2277,7 +3090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -2285,7 +3098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -2293,7 +3106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -2301,7 +3114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -2309,15 +3122,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -2325,7 +3141,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -2333,7 +3149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -2341,7 +3157,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -2349,7 +3165,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -2357,7 +3173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3557,7 +4373,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -3565,7 +4381,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -3573,7 +4389,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -3581,7 +4397,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -3589,7 +4405,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -3597,12 +4413,1497 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>2</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>2</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>2</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>2</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>2</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>2</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>2</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>2</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>2</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>2</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>2</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>2</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>2</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>2</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>2</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>2</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>2</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>2</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>1</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>2</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>2</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>2</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>2</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>2</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>2</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>2</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>2</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>2</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>2</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>2</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>2</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>2</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>2</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>2</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>2</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>2</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>2</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>2</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>2</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>2</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>2</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>2</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>2</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>2</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>2</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>2</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>2</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>2</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>2</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>2</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>2</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>2</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>2</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>2</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>2</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>2</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>2</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>2</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>2</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>2</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>2</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>2</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>2</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>2</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>2</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>2</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>2</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>2</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>2</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>2</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>2</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>2</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>2</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>2</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>2</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>2</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>2</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>2</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>2</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>2</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>1</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>2</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>2</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>2</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>2</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>1</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>2</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>2</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>2</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>2</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>2</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>2</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>2</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>2</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>2</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>2</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>2</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>2</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>2</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>2</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>2</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>1</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>2</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>2</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>2</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>2</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>2</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>1</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>2</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>2</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>1</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>2</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>2</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>2</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>1</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>2</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>2</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>2</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>2</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>2</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>2</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>2</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>2</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>2</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>2</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>2</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>2</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>2</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>2</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>2</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>2</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>2</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>2</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>2</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>2</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>2</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>2</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>1</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>2</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
